--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.483923252216</v>
+        <v>460.2676507292142</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.9664954557419</v>
+        <v>629.7585053033663</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.6321492227934</v>
+        <v>569.6552374288258</v>
       </c>
       <c r="AD2" t="n">
-        <v>362483.923252216</v>
+        <v>460267.6507292142</v>
       </c>
       <c r="AE2" t="n">
-        <v>495966.4954557419</v>
+        <v>629758.5053033663</v>
       </c>
       <c r="AF2" t="n">
         <v>8.057312614984181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>448632.1492227934</v>
+        <v>569655.2374288258</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.1487468818718</v>
+        <v>267.6342303555318</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.4841013062916</v>
+        <v>366.1889611613734</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.4786011115371</v>
+        <v>331.2404006575661</v>
       </c>
       <c r="AD3" t="n">
-        <v>199148.7468818718</v>
+        <v>267634.2303555318</v>
       </c>
       <c r="AE3" t="n">
-        <v>272484.1013062916</v>
+        <v>366188.9611613734</v>
       </c>
       <c r="AF3" t="n">
         <v>1.24656669467896e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>246478.6011115371</v>
+        <v>331240.400657566</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.972104561323</v>
+        <v>249.4234226161988</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.6140173864651</v>
+        <v>341.272130608121</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.9820830956289</v>
+        <v>308.7015974414272</v>
       </c>
       <c r="AD4" t="n">
-        <v>180972.104561323</v>
+        <v>249423.4226161988</v>
       </c>
       <c r="AE4" t="n">
-        <v>247614.0173864651</v>
+        <v>341272.130608121</v>
       </c>
       <c r="AF4" t="n">
         <v>1.314092673479064e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>223982.0830956289</v>
+        <v>308701.5974414272</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.5836911603673</v>
+        <v>351.9607645535277</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.697520023122</v>
+        <v>481.5682454752</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.8414760068956</v>
+        <v>435.6080480123235</v>
       </c>
       <c r="AD2" t="n">
-        <v>274583.6911603673</v>
+        <v>351960.7645535277</v>
       </c>
       <c r="AE2" t="n">
-        <v>375697.520023122</v>
+        <v>481568.2454752</v>
       </c>
       <c r="AF2" t="n">
         <v>1.053869178740828e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.29557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>339841.4760068955</v>
+        <v>435608.0480123236</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.24629104972</v>
+        <v>244.2622661426635</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.8303920205724</v>
+        <v>334.2104086268797</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.5097370629047</v>
+        <v>302.3138362948843</v>
       </c>
       <c r="AD3" t="n">
-        <v>186246.29104972</v>
+        <v>244262.2661426635</v>
       </c>
       <c r="AE3" t="n">
-        <v>254830.3920205724</v>
+        <v>334210.4086268797</v>
       </c>
       <c r="AF3" t="n">
         <v>1.411058870103702e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>230509.7370629047</v>
+        <v>302313.8362948843</v>
       </c>
     </row>
   </sheetData>
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.1408358811069</v>
+        <v>262.9163589613597</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.4225918402937</v>
+        <v>359.7337613820709</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.8545409700079</v>
+        <v>325.4012760852704</v>
       </c>
       <c r="AD2" t="n">
-        <v>188140.8358811068</v>
+        <v>262916.3589613597</v>
       </c>
       <c r="AE2" t="n">
-        <v>257422.5918402937</v>
+        <v>359733.7613820709</v>
       </c>
       <c r="AF2" t="n">
         <v>1.7168468681655e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.96484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>232854.5409700079</v>
+        <v>325401.2760852703</v>
       </c>
     </row>
   </sheetData>
@@ -3011,28 +3011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0942173985847</v>
+        <v>246.9564837805337</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0952946096161</v>
+        <v>337.8967560595052</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2721647381889</v>
+        <v>305.6483639023623</v>
       </c>
       <c r="AD2" t="n">
-        <v>190094.2173985847</v>
+        <v>246956.4837805337</v>
       </c>
       <c r="AE2" t="n">
-        <v>260095.2946096161</v>
+        <v>337896.7560595052</v>
       </c>
       <c r="AF2" t="n">
         <v>1.595068830410808e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.01432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>235272.1647381889</v>
+        <v>305648.3639023623</v>
       </c>
     </row>
     <row r="3">
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.084496486707</v>
+        <v>246.4283219672775</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.3995528602716</v>
+        <v>337.1741017657538</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.8835253593032</v>
+        <v>304.9946787201546</v>
       </c>
       <c r="AD3" t="n">
-        <v>180084.496486707</v>
+        <v>246428.3219672775</v>
       </c>
       <c r="AE3" t="n">
-        <v>246399.5528602716</v>
+        <v>337174.1017657538</v>
       </c>
       <c r="AF3" t="n">
         <v>1.603582071080054e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>222883.5253593032</v>
+        <v>304994.6787201546</v>
       </c>
     </row>
   </sheetData>
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.661180408163</v>
+        <v>282.5696407110978</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.4994325159061</v>
+        <v>386.6242485136605</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.2517673776421</v>
+        <v>349.7253728660568</v>
       </c>
       <c r="AD2" t="n">
-        <v>208661.180408163</v>
+        <v>282569.6407110978</v>
       </c>
       <c r="AE2" t="n">
-        <v>285499.4325159061</v>
+        <v>386624.2485136605</v>
       </c>
       <c r="AF2" t="n">
         <v>1.78065251892313e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>258251.7673776421</v>
+        <v>349725.3728660568</v>
       </c>
     </row>
   </sheetData>
@@ -3711,28 +3711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.0505230135168</v>
+        <v>374.6887982152073</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.4376305312696</v>
+        <v>512.6657438211887</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.6477935121616</v>
+        <v>463.7376447617843</v>
       </c>
       <c r="AD2" t="n">
-        <v>297050.5230135168</v>
+        <v>374688.7982152074</v>
       </c>
       <c r="AE2" t="n">
-        <v>406437.6305312696</v>
+        <v>512665.7438211887</v>
       </c>
       <c r="AF2" t="n">
         <v>9.843672750335829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.02473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>367647.7935121616</v>
+        <v>463737.6447617843</v>
       </c>
     </row>
     <row r="3">
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.4282278111467</v>
+        <v>245.6144801964021</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.4475700409254</v>
+        <v>336.0605675506775</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.9725738827193</v>
+        <v>303.9874186477099</v>
       </c>
       <c r="AD3" t="n">
-        <v>187428.2278111466</v>
+        <v>245614.4801964021</v>
       </c>
       <c r="AE3" t="n">
-        <v>256447.5700409253</v>
+        <v>336060.5675506776</v>
       </c>
       <c r="AF3" t="n">
         <v>1.383252118367188e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>231972.5738827193</v>
+        <v>303987.4186477099</v>
       </c>
     </row>
     <row r="4">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.1577448713425</v>
+        <v>245.3439972565979</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.0774833498203</v>
+        <v>335.6904808595726</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.6378077459933</v>
+        <v>303.6526525109838</v>
       </c>
       <c r="AD4" t="n">
-        <v>187157.7448713425</v>
+        <v>245343.9972565979</v>
       </c>
       <c r="AE4" t="n">
-        <v>256077.4833498204</v>
+        <v>335690.4808595726</v>
       </c>
       <c r="AF4" t="n">
         <v>1.388477571593616e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>231637.8077459933</v>
+        <v>303652.6525109839</v>
       </c>
     </row>
   </sheetData>
@@ -4220,28 +4220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.2308962748806</v>
+        <v>302.902396124259</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.3296281845815</v>
+        <v>414.4444214878081</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.5711513895234</v>
+        <v>374.8904275774098</v>
       </c>
       <c r="AD2" t="n">
-        <v>220230.8962748806</v>
+        <v>302902.396124259</v>
       </c>
       <c r="AE2" t="n">
-        <v>301329.6281845815</v>
+        <v>414444.4214878082</v>
       </c>
       <c r="AF2" t="n">
         <v>1.802597917622468e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>272571.1513895234</v>
+        <v>374890.4275774098</v>
       </c>
     </row>
   </sheetData>
@@ -4517,28 +4517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.5309331911002</v>
+        <v>288.5827198685498</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.1083960469331</v>
+        <v>394.8516086952166</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.1801561436092</v>
+        <v>357.1675253390576</v>
       </c>
       <c r="AD2" t="n">
-        <v>221530.9331911003</v>
+        <v>288582.7198685498</v>
       </c>
       <c r="AE2" t="n">
-        <v>303108.3960469331</v>
+        <v>394851.6086952165</v>
       </c>
       <c r="AF2" t="n">
         <v>1.310893031991077e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>274180.1561436092</v>
+        <v>357167.5253390577</v>
       </c>
     </row>
     <row r="3">
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.5962835658693</v>
+        <v>240.0596264597224</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.8362907542049</v>
+        <v>328.4601716053051</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.9922658121326</v>
+        <v>297.1123938241386</v>
       </c>
       <c r="AD3" t="n">
-        <v>182596.2835658693</v>
+        <v>240059.6264597224</v>
       </c>
       <c r="AE3" t="n">
-        <v>249836.2907542049</v>
+        <v>328460.1716053051</v>
       </c>
       <c r="AF3" t="n">
         <v>1.503154283844045e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>225992.2658121326</v>
+        <v>297112.3938241386</v>
       </c>
     </row>
   </sheetData>
@@ -4920,28 +4920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.856322906307</v>
+        <v>331.0650463737497</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.3374203508023</v>
+        <v>452.9778020076027</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.1880244437565</v>
+        <v>409.7462363423344</v>
       </c>
       <c r="AD2" t="n">
-        <v>253856.3229063069</v>
+        <v>331065.0463737497</v>
       </c>
       <c r="AE2" t="n">
-        <v>347337.4203508023</v>
+        <v>452977.8020076027</v>
       </c>
       <c r="AF2" t="n">
         <v>1.125741182191095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.65755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>314188.0244437566</v>
+        <v>409746.2363423344</v>
       </c>
     </row>
     <row r="3">
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.9838399102988</v>
+        <v>242.8230627031733</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.1030506762037</v>
+        <v>332.2412269877955</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.9472507521032</v>
+        <v>300.5325905876699</v>
       </c>
       <c r="AD3" t="n">
-        <v>184983.8399102988</v>
+        <v>242823.0627031733</v>
       </c>
       <c r="AE3" t="n">
-        <v>253103.0506762037</v>
+        <v>332241.2269877956</v>
       </c>
       <c r="AF3" t="n">
         <v>1.439692474848332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.24609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>228947.2507521032</v>
+        <v>300532.5905876699</v>
       </c>
     </row>
   </sheetData>
@@ -5323,28 +5323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.9235160765272</v>
+        <v>433.5177004254583</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.6253745954988</v>
+        <v>593.1580431732491</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.7593739323684</v>
+        <v>536.5478720353358</v>
       </c>
       <c r="AD2" t="n">
-        <v>335923.5160765272</v>
+        <v>433517.7004254583</v>
       </c>
       <c r="AE2" t="n">
-        <v>459625.3745954988</v>
+        <v>593158.0431732491</v>
       </c>
       <c r="AF2" t="n">
         <v>8.607976792195257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>415759.3739323684</v>
+        <v>536547.8720353357</v>
       </c>
     </row>
     <row r="3">
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.0856834485447</v>
+        <v>252.5953735014666</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.5565945502227</v>
+        <v>345.612133745939</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.2122458774485</v>
+        <v>312.6273967710059</v>
       </c>
       <c r="AD3" t="n">
-        <v>194085.6834485447</v>
+        <v>252595.3735014666</v>
       </c>
       <c r="AE3" t="n">
-        <v>265556.5945502227</v>
+        <v>345612.133745939</v>
       </c>
       <c r="AF3" t="n">
         <v>1.298346246515157e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>240212.2458774485</v>
+        <v>312627.3967710059</v>
       </c>
     </row>
     <row r="4">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.7347955953405</v>
+        <v>248.0063095951763</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.9210766729897</v>
+        <v>339.3331740541447</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.4507142677898</v>
+        <v>306.9476921796193</v>
       </c>
       <c r="AD4" t="n">
-        <v>179734.7955953405</v>
+        <v>248006.3095951763</v>
       </c>
       <c r="AE4" t="n">
-        <v>245921.0766729897</v>
+        <v>339333.1740541447</v>
       </c>
       <c r="AF4" t="n">
         <v>1.33875882090482e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>222450.7142677898</v>
+        <v>306947.6921796193</v>
       </c>
     </row>
   </sheetData>
@@ -5832,28 +5832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.8693954314361</v>
+        <v>261.4061041293957</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.6289038601468</v>
+        <v>357.6673640932369</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.1822154918292</v>
+        <v>323.5320928534758</v>
       </c>
       <c r="AD2" t="n">
-        <v>194869.3954314361</v>
+        <v>261406.1041293957</v>
       </c>
       <c r="AE2" t="n">
-        <v>266628.9038601468</v>
+        <v>357667.3640932369</v>
       </c>
       <c r="AF2" t="n">
         <v>1.512818880497789e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>241182.2154918292</v>
+        <v>323532.0928534758</v>
       </c>
     </row>
     <row r="3">
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.1386377178023</v>
+        <v>247.7426662234631</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.8418753980844</v>
+        <v>338.9724455618422</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.1881946584201</v>
+        <v>306.6213911083363</v>
       </c>
       <c r="AD3" t="n">
-        <v>181138.6377178023</v>
+        <v>247742.6662234631</v>
       </c>
       <c r="AE3" t="n">
-        <v>247841.8753980844</v>
+        <v>338972.4455618422</v>
       </c>
       <c r="AF3" t="n">
         <v>1.565623027930894e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>224188.19465842</v>
+        <v>306621.3911083363</v>
       </c>
     </row>
   </sheetData>
@@ -6235,28 +6235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.3074565433366</v>
+        <v>254.1139901238634</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.6505695811411</v>
+        <v>347.6899720053382</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.0607608352377</v>
+        <v>314.506929063193</v>
       </c>
       <c r="AD2" t="n">
-        <v>188307.4565433366</v>
+        <v>254113.9901238634</v>
       </c>
       <c r="AE2" t="n">
-        <v>257650.5695811411</v>
+        <v>347689.9720053382</v>
       </c>
       <c r="AF2" t="n">
         <v>1.678907396385732e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.52864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>233060.7608352377</v>
+        <v>314506.929063193</v>
       </c>
     </row>
   </sheetData>
@@ -10313,28 +10313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.1083304536804</v>
+        <v>272.5219043761204</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.0605576493076</v>
+        <v>372.8764923853022</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.1909184632191</v>
+        <v>337.2896832874922</v>
       </c>
       <c r="AD2" t="n">
-        <v>198108.3304536804</v>
+        <v>272521.9043761204</v>
       </c>
       <c r="AE2" t="n">
-        <v>271060.5576493076</v>
+        <v>372876.4923853022</v>
       </c>
       <c r="AF2" t="n">
         <v>1.749410793451825e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>245190.9184632191</v>
+        <v>337289.6832874921</v>
       </c>
     </row>
   </sheetData>
@@ -10610,28 +10610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.7454252347414</v>
+        <v>335.8884143378531</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.8714882121351</v>
+        <v>459.5773468480655</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.9118233723542</v>
+        <v>415.7159298857428</v>
       </c>
       <c r="AD2" t="n">
-        <v>244745.4252347414</v>
+        <v>335888.4143378531</v>
       </c>
       <c r="AE2" t="n">
-        <v>334871.4882121352</v>
+        <v>459577.3468480655</v>
       </c>
       <c r="AF2" t="n">
         <v>1.779182965033215e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.96484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>302911.8233723542</v>
+        <v>415715.9298857428</v>
       </c>
     </row>
   </sheetData>
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.0214561790949</v>
+        <v>308.9507722980545</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.461992408311</v>
+        <v>422.7200766043196</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.1638654136606</v>
+        <v>382.3762657845563</v>
       </c>
       <c r="AD2" t="n">
-        <v>232021.4561790949</v>
+        <v>308950.7722980545</v>
       </c>
       <c r="AE2" t="n">
-        <v>317461.992408311</v>
+        <v>422720.0766043196</v>
       </c>
       <c r="AF2" t="n">
         <v>1.216220666677363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>287163.8654136606</v>
+        <v>382376.2657845563</v>
       </c>
     </row>
     <row r="3">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.9089692807436</v>
+        <v>241.5642606263415</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.6323652609015</v>
+        <v>330.518878451847</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.616925488717</v>
+        <v>298.9746205786604</v>
       </c>
       <c r="AD3" t="n">
-        <v>183908.9692807436</v>
+        <v>241564.2606263415</v>
       </c>
       <c r="AE3" t="n">
-        <v>251632.3652609015</v>
+        <v>330518.878451847</v>
       </c>
       <c r="AF3" t="n">
         <v>1.47063346332559e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.32421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>227616.925488717</v>
+        <v>298974.6205786604</v>
       </c>
     </row>
   </sheetData>
@@ -11310,28 +11310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.6021224742738</v>
+        <v>398.2290816109131</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.979526767851</v>
+        <v>544.8745980872015</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.4200771956386</v>
+        <v>492.8725311820596</v>
       </c>
       <c r="AD2" t="n">
-        <v>310602.1224742738</v>
+        <v>398229.0816109131</v>
       </c>
       <c r="AE2" t="n">
-        <v>424979.526767851</v>
+        <v>544874.5980872016</v>
       </c>
       <c r="AF2" t="n">
         <v>9.216591779462315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.76692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>384420.0771956386</v>
+        <v>492872.5311820596</v>
       </c>
     </row>
     <row r="3">
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.7546379777474</v>
+        <v>248.1052909278017</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.6306670648399</v>
+        <v>339.468604680191</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.8518805941772</v>
+        <v>307.0701974967938</v>
       </c>
       <c r="AD3" t="n">
-        <v>189754.6379777474</v>
+        <v>248105.2909278017</v>
       </c>
       <c r="AE3" t="n">
-        <v>259630.6670648399</v>
+        <v>339468.604680191</v>
       </c>
       <c r="AF3" t="n">
         <v>1.348152937828283e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>234851.8805941772</v>
+        <v>307070.1974967938</v>
       </c>
     </row>
     <row r="4">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.5169182328756</v>
+        <v>246.8675711829299</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.9371643055658</v>
+        <v>337.7751019209168</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.3200033614016</v>
+        <v>305.5383202640181</v>
       </c>
       <c r="AD4" t="n">
-        <v>188516.9182328756</v>
+        <v>246867.5711829299</v>
       </c>
       <c r="AE4" t="n">
-        <v>257937.1643055658</v>
+        <v>337775.1019209168</v>
       </c>
       <c r="AF4" t="n">
         <v>1.362013041732441e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>233320.0033614016</v>
+        <v>305538.3202640181</v>
       </c>
     </row>
   </sheetData>
@@ -11819,28 +11819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.4292268683097</v>
+        <v>421.746597681331</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.5334986708368</v>
+        <v>577.0523010943318</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.7801261661284</v>
+        <v>521.9792393758793</v>
       </c>
       <c r="AD2" t="n">
-        <v>304429.2268683097</v>
+        <v>421746.597681331</v>
       </c>
       <c r="AE2" t="n">
-        <v>416533.4986708367</v>
+        <v>577052.3010943318</v>
       </c>
       <c r="AF2" t="n">
         <v>1.663610455820191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>376780.1261661284</v>
+        <v>521979.2393758793</v>
       </c>
     </row>
   </sheetData>
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.0161628238919</v>
+        <v>255.0164326210075</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.6202527801109</v>
+        <v>348.9247336428833</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.937898830657</v>
+        <v>315.6238467830501</v>
       </c>
       <c r="AD2" t="n">
-        <v>189016.1628238919</v>
+        <v>255016.4326210076</v>
       </c>
       <c r="AE2" t="n">
-        <v>258620.2527801109</v>
+        <v>348924.7336428833</v>
       </c>
       <c r="AF2" t="n">
         <v>1.636971685214631e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>233937.898830657</v>
+        <v>315623.8467830501</v>
       </c>
     </row>
     <row r="3">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.0687135367913</v>
+        <v>245.6942063109541</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.6921549838736</v>
+        <v>336.1696523378756</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.0029387890081</v>
+        <v>304.0860925359191</v>
       </c>
       <c r="AD3" t="n">
-        <v>189068.7135367913</v>
+        <v>245694.2063109541</v>
       </c>
       <c r="AE3" t="n">
-        <v>258692.1549838737</v>
+        <v>336169.6523378756</v>
       </c>
       <c r="AF3" t="n">
         <v>1.641263396201394e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>234002.9387890081</v>
+        <v>304086.0925359192</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.1754837695184</v>
+        <v>269.0601194133761</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.6254162461751</v>
+        <v>368.1399254761016</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.2246747659314</v>
+        <v>333.0051676762922</v>
       </c>
       <c r="AD2" t="n">
-        <v>202175.4837695184</v>
+        <v>269060.1194133761</v>
       </c>
       <c r="AE2" t="n">
-        <v>276625.4162461751</v>
+        <v>368139.9254761016</v>
       </c>
       <c r="AF2" t="n">
         <v>1.416296323732939e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>250224.6747659314</v>
+        <v>333005.1676762922</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.9438408053841</v>
+        <v>248.7943110304577</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.9435897855664</v>
+        <v>340.411352382066</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.1847629710269</v>
+        <v>307.9229706811569</v>
       </c>
       <c r="AD3" t="n">
-        <v>181943.8408053841</v>
+        <v>248794.3110304577</v>
       </c>
       <c r="AE3" t="n">
-        <v>248943.5897855663</v>
+        <v>340411.352382066</v>
       </c>
       <c r="AF3" t="n">
         <v>1.53212636882478e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>225184.7629710269</v>
+        <v>307922.9706811568</v>
       </c>
     </row>
   </sheetData>
